--- a/outputs/Serious_rate_ranges_M.xlsx
+++ b/outputs/Serious_rate_ranges_M.xlsx
@@ -121,19 +121,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>30.758915086005203</v>
+        <v>30.750383018998047</v>
       </c>
       <c r="C2" t="n">
-        <v>66.56833337385163</v>
+        <v>66.58146621636186</v>
       </c>
       <c r="D2" t="n">
-        <v>55.643029021038416</v>
+        <v>55.64534215294986</v>
       </c>
       <c r="E2" t="n">
-        <v>66.6235793363097</v>
+        <v>66.61592601908087</v>
       </c>
       <c r="F2" t="n">
-        <v>52.62727814992099</v>
+        <v>52.625522489832576</v>
       </c>
     </row>
     <row r="3">
@@ -141,19 +141,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>18.65659091500407</v>
+        <v>18.6630165842303</v>
       </c>
       <c r="C3" t="n">
-        <v>33.14714790240514</v>
+        <v>33.12603426619063</v>
       </c>
       <c r="D3" t="n">
-        <v>22.2533585278611</v>
+        <v>22.238788505658153</v>
       </c>
       <c r="E3" t="n">
-        <v>26.234763798186627</v>
+        <v>26.216068394568552</v>
       </c>
       <c r="F3" t="n">
-        <v>24.37252144939148</v>
+        <v>24.36228380801237</v>
       </c>
     </row>
     <row r="4">
@@ -161,19 +161,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>45.33230324485083</v>
+        <v>45.34353936719</v>
       </c>
       <c r="C4" t="n">
-        <v>69.7271858395227</v>
+        <v>69.84864719943432</v>
       </c>
       <c r="D4" t="n">
-        <v>92.64488537154828</v>
+        <v>92.73804905603066</v>
       </c>
       <c r="E4" t="n">
-        <v>96.24176805179636</v>
+        <v>96.26361540579646</v>
       </c>
       <c r="F4" t="n">
-        <v>59.38113661372858</v>
+        <v>59.422411336401005</v>
       </c>
     </row>
     <row r="5">
@@ -181,19 +181,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>72.38599295096137</v>
+        <v>72.51072650067844</v>
       </c>
       <c r="C5" t="n">
-        <v>168.82145620691327</v>
+        <v>168.9195277358164</v>
       </c>
       <c r="D5" t="n">
-        <v>90.03504376039353</v>
+        <v>89.78150036243683</v>
       </c>
       <c r="E5" t="n">
-        <v>69.53297638161123</v>
+        <v>69.54881652036516</v>
       </c>
       <c r="F5" t="n">
-        <v>94.75692457127867</v>
+        <v>94.7733265253689</v>
       </c>
     </row>
     <row r="6">
@@ -201,19 +201,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>78.11733274075482</v>
+        <v>78.06525519168737</v>
       </c>
       <c r="C6" t="n">
-        <v>195.0342079454402</v>
+        <v>194.89793207778084</v>
       </c>
       <c r="D6" t="n">
-        <v>116.28608872108859</v>
+        <v>116.42003870850048</v>
       </c>
       <c r="E6" t="n">
-        <v>127.50962395478275</v>
+        <v>127.41453273097767</v>
       </c>
       <c r="F6" t="n">
-        <v>136.93593457491377</v>
+        <v>136.86372454634048</v>
       </c>
     </row>
     <row r="7">
@@ -221,19 +221,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>77.46760755830607</v>
+        <v>77.45738409250004</v>
       </c>
       <c r="C7" t="n">
-        <v>60.20715993208358</v>
+        <v>60.311365658922554</v>
       </c>
       <c r="D7" t="n">
-        <v>23.643029580044228</v>
+        <v>23.64630097268782</v>
       </c>
       <c r="E7" t="n">
-        <v>22.872077459569613</v>
+        <v>22.92607311449163</v>
       </c>
       <c r="F7" t="n">
-        <v>32.376201032618155</v>
+        <v>32.42617136837995</v>
       </c>
     </row>
   </sheetData>
@@ -272,19 +272,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>30.760367697163357</v>
+        <v>30.737476806150546</v>
       </c>
       <c r="C2" t="n">
-        <v>66.5863281490112</v>
+        <v>66.57918191495453</v>
       </c>
       <c r="D2" t="n">
-        <v>55.65528280195568</v>
+        <v>55.66289997113265</v>
       </c>
       <c r="E2" t="n">
-        <v>66.62671123499898</v>
+        <v>66.61454216807883</v>
       </c>
       <c r="F2" t="n">
-        <v>52.61825119676202</v>
+        <v>52.618337339941505</v>
       </c>
     </row>
     <row r="3">
@@ -292,19 +292,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>18.650662239732895</v>
+        <v>18.64804537509557</v>
       </c>
       <c r="C3" t="n">
-        <v>33.15688945413618</v>
+        <v>33.12073322457231</v>
       </c>
       <c r="D3" t="n">
-        <v>22.263723552904867</v>
+        <v>22.240030842358546</v>
       </c>
       <c r="E3" t="n">
-        <v>26.219199434713214</v>
+        <v>26.224483508879445</v>
       </c>
       <c r="F3" t="n">
-        <v>24.375322706698974</v>
+        <v>24.353005151546565</v>
       </c>
     </row>
     <row r="4">
@@ -312,19 +312,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>45.326096391217945</v>
+        <v>45.33926799567412</v>
       </c>
       <c r="C4" t="n">
-        <v>69.76719266388858</v>
+        <v>69.83543907046997</v>
       </c>
       <c r="D4" t="n">
-        <v>92.63409245893243</v>
+        <v>92.72881636138376</v>
       </c>
       <c r="E4" t="n">
-        <v>96.1946260328492</v>
+        <v>96.29095069291826</v>
       </c>
       <c r="F4" t="n">
-        <v>59.360198726944986</v>
+        <v>59.41728902340914</v>
       </c>
     </row>
     <row r="5">
@@ -332,19 +332,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>72.41685063269321</v>
+        <v>72.43152208065106</v>
       </c>
       <c r="C5" t="n">
-        <v>168.80925541592111</v>
+        <v>168.8872523791088</v>
       </c>
       <c r="D5" t="n">
-        <v>89.92496768861889</v>
+        <v>89.68600595230777</v>
       </c>
       <c r="E5" t="n">
-        <v>69.53912832189474</v>
+        <v>69.38653299819173</v>
       </c>
       <c r="F5" t="n">
-        <v>94.78315210876862</v>
+        <v>94.74028636199994</v>
       </c>
     </row>
     <row r="6">
@@ -352,19 +352,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>78.1608289363835</v>
+        <v>78.03897773575459</v>
       </c>
       <c r="C6" t="n">
-        <v>195.0836480872298</v>
+        <v>194.725704296069</v>
       </c>
       <c r="D6" t="n">
-        <v>116.15565328371603</v>
+        <v>116.27952083561034</v>
       </c>
       <c r="E6" t="n">
-        <v>127.38127124697546</v>
+        <v>127.34394958004218</v>
       </c>
       <c r="F6" t="n">
-        <v>136.9521407772753</v>
+        <v>136.85874025651805</v>
       </c>
     </row>
     <row r="7">
@@ -372,19 +372,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>77.06493347284427</v>
+        <v>77.30391233682468</v>
       </c>
       <c r="C7" t="n">
-        <v>60.08392384650913</v>
+        <v>60.262301443901066</v>
       </c>
       <c r="D7" t="n">
-        <v>23.57167261425151</v>
+        <v>23.580022869555023</v>
       </c>
       <c r="E7" t="n">
-        <v>22.838474302807253</v>
+        <v>22.89498846061624</v>
       </c>
       <c r="F7" t="n">
-        <v>32.335467669755495</v>
+        <v>32.420907667580366</v>
       </c>
     </row>
   </sheetData>
@@ -423,19 +423,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>30.397164488015033</v>
+        <v>30.4062741331319</v>
       </c>
       <c r="C2" t="n">
-        <v>65.83614300532017</v>
+        <v>65.92062419414796</v>
       </c>
       <c r="D2" t="n">
-        <v>54.85951640919228</v>
+        <v>54.876015722186565</v>
       </c>
       <c r="E2" t="n">
-        <v>66.03617049940966</v>
+        <v>66.02726233533521</v>
       </c>
       <c r="F2" t="n">
-        <v>52.330490976795055</v>
+        <v>52.36209786515733</v>
       </c>
     </row>
     <row r="3">
@@ -443,19 +443,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>18.09098596781553</v>
+        <v>18.103998172415633</v>
       </c>
       <c r="C3" t="n">
-        <v>32.13705250796545</v>
+        <v>32.11061977170823</v>
       </c>
       <c r="D3" t="n">
-        <v>21.492654939539953</v>
+        <v>21.477947390460145</v>
       </c>
       <c r="E3" t="n">
-        <v>25.516321037995898</v>
+        <v>25.482452558985763</v>
       </c>
       <c r="F3" t="n">
-        <v>23.977604989017824</v>
+        <v>23.968262151017495</v>
       </c>
     </row>
     <row r="4">
@@ -463,19 +463,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>44.01556253058874</v>
+        <v>44.14858228387945</v>
       </c>
       <c r="C4" t="n">
-        <v>67.08944404473951</v>
+        <v>67.16206705585644</v>
       </c>
       <c r="D4" t="n">
-        <v>88.52480922898333</v>
+        <v>88.60940338435495</v>
       </c>
       <c r="E4" t="n">
-        <v>91.7765900787239</v>
+        <v>91.5159798980062</v>
       </c>
       <c r="F4" t="n">
-        <v>58.30721331624526</v>
+        <v>58.30878391216559</v>
       </c>
     </row>
     <row r="5">
@@ -483,19 +483,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>67.94126086577197</v>
+        <v>67.74494910236251</v>
       </c>
       <c r="C5" t="n">
-        <v>161.71930364417415</v>
+        <v>161.96827198222383</v>
       </c>
       <c r="D5" t="n">
-        <v>83.8329588481576</v>
+        <v>83.96337272102294</v>
       </c>
       <c r="E5" t="n">
-        <v>66.27875594047512</v>
+        <v>66.3113712053204</v>
       </c>
       <c r="F5" t="n">
-        <v>92.29133158657463</v>
+        <v>92.39412701746944</v>
       </c>
     </row>
     <row r="6">
@@ -503,19 +503,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>72.85903845898031</v>
+        <v>72.73342986706413</v>
       </c>
       <c r="C6" t="n">
-        <v>187.85692321063772</v>
+        <v>187.87910773606671</v>
       </c>
       <c r="D6" t="n">
-        <v>108.47501792323096</v>
+        <v>108.26431922253612</v>
       </c>
       <c r="E6" t="n">
-        <v>122.95020025246546</v>
+        <v>122.34852116549291</v>
       </c>
       <c r="F6" t="n">
-        <v>133.90002951610788</v>
+        <v>133.6341264782746</v>
       </c>
     </row>
     <row r="7">
@@ -523,19 +523,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>66.2303267711271</v>
+        <v>66.0189623383464</v>
       </c>
       <c r="C7" t="n">
-        <v>55.85734161773845</v>
+        <v>56.04003633207335</v>
       </c>
       <c r="D7" t="n">
-        <v>21.110260183810215</v>
+        <v>21.08652913927251</v>
       </c>
       <c r="E7" t="n">
-        <v>21.22366010037275</v>
+        <v>21.374061644947645</v>
       </c>
       <c r="F7" t="n">
-        <v>30.881231767347618</v>
+        <v>30.992903268699415</v>
       </c>
     </row>
   </sheetData>
@@ -574,19 +574,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>31.156922793461153</v>
+        <v>31.11990511437158</v>
       </c>
       <c r="C2" t="n">
-        <v>67.22657614397092</v>
+        <v>67.25130156908412</v>
       </c>
       <c r="D2" t="n">
-        <v>56.40321485228982</v>
+        <v>56.38105415200879</v>
       </c>
       <c r="E2" t="n">
-        <v>67.22305107921741</v>
+        <v>67.22314997244595</v>
       </c>
       <c r="F2" t="n">
-        <v>52.938287712086556</v>
+        <v>52.90548510612692</v>
       </c>
     </row>
     <row r="3">
@@ -594,19 +594,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>19.260333005066055</v>
+        <v>19.281799344356113</v>
       </c>
       <c r="C3" t="n">
-        <v>34.10714612073054</v>
+        <v>34.158516104728726</v>
       </c>
       <c r="D3" t="n">
-        <v>23.089475663326713</v>
+        <v>22.982135076250838</v>
       </c>
       <c r="E3" t="n">
-        <v>26.974398290923396</v>
+        <v>26.99477085076806</v>
       </c>
       <c r="F3" t="n">
-        <v>24.75269189770155</v>
+        <v>24.767968872471915</v>
       </c>
     </row>
     <row r="4">
@@ -614,19 +614,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>46.61352235377438</v>
+        <v>46.595843859190886</v>
       </c>
       <c r="C4" t="n">
-        <v>72.49567891847627</v>
+        <v>72.48435095465368</v>
       </c>
       <c r="D4" t="n">
-        <v>97.13494017550214</v>
+        <v>96.92723073396272</v>
       </c>
       <c r="E4" t="n">
-        <v>100.8886497358247</v>
+        <v>100.732854738774</v>
       </c>
       <c r="F4" t="n">
-        <v>60.48612047805005</v>
+        <v>60.56670925451538</v>
       </c>
     </row>
     <row r="5">
@@ -634,19 +634,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>76.85053187278986</v>
+        <v>77.35591831994002</v>
       </c>
       <c r="C5" t="n">
-        <v>175.82079579960768</v>
+        <v>176.05064019169225</v>
       </c>
       <c r="D5" t="n">
-        <v>96.39934052188944</v>
+        <v>95.77726729824091</v>
       </c>
       <c r="E5" t="n">
-        <v>73.06589434079386</v>
+        <v>73.05089888751687</v>
       </c>
       <c r="F5" t="n">
-        <v>97.24750452819167</v>
+        <v>97.19239579220401</v>
       </c>
     </row>
     <row r="6">
@@ -654,19 +654,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>83.4073007525119</v>
+        <v>83.77157824752963</v>
       </c>
       <c r="C6" t="n">
-        <v>202.19372914667957</v>
+        <v>202.3434814057767</v>
       </c>
       <c r="D6" t="n">
-        <v>125.34882657836609</v>
+        <v>125.00563692379745</v>
       </c>
       <c r="E6" t="n">
-        <v>132.2702479220067</v>
+        <v>132.2844031317376</v>
       </c>
       <c r="F6" t="n">
-        <v>139.9793163413316</v>
+        <v>140.21420881784528</v>
       </c>
     </row>
     <row r="7">
@@ -674,19 +674,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>89.81916119102027</v>
+        <v>89.99497066211117</v>
       </c>
       <c r="C7" t="n">
-        <v>64.83619998743292</v>
+        <v>64.5802963011589</v>
       </c>
       <c r="D7" t="n">
-        <v>26.40147537936274</v>
+        <v>26.310859337681276</v>
       </c>
       <c r="E7" t="n">
-        <v>24.716778553571064</v>
+        <v>24.504038082727998</v>
       </c>
       <c r="F7" t="n">
-        <v>33.88015935664225</v>
+        <v>33.8611170603933</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/Serious_rate_ranges_M.xlsx
+++ b/outputs/Serious_rate_ranges_M.xlsx
@@ -35,10 +35,10 @@
     <t>car/taxi</t>
   </si>
   <si>
-    <t>light goods</t>
-  </si>
-  <si>
-    <t>heavy goods</t>
+    <t>van</t>
+  </si>
+  <si>
+    <t>lorry</t>
   </si>
   <si>
     <t>motorcycle</t>
@@ -121,19 +121,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>30.750383018998047</v>
+        <v>30.753496543761788</v>
       </c>
       <c r="C2" t="n">
-        <v>66.58146621636186</v>
+        <v>66.57885970188937</v>
       </c>
       <c r="D2" t="n">
-        <v>55.64534215294986</v>
+        <v>55.65877137484461</v>
       </c>
       <c r="E2" t="n">
-        <v>66.61592601908087</v>
+        <v>66.63321999269364</v>
       </c>
       <c r="F2" t="n">
-        <v>52.625522489832576</v>
+        <v>52.63283818985298</v>
       </c>
     </row>
     <row r="3">
@@ -141,19 +141,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>18.6630165842303</v>
+        <v>18.65996084621735</v>
       </c>
       <c r="C3" t="n">
-        <v>33.12603426619063</v>
+        <v>33.122905065273606</v>
       </c>
       <c r="D3" t="n">
-        <v>22.238788505658153</v>
+        <v>22.252286622710468</v>
       </c>
       <c r="E3" t="n">
-        <v>26.216068394568552</v>
+        <v>26.203069949250775</v>
       </c>
       <c r="F3" t="n">
-        <v>24.36228380801237</v>
+        <v>24.35953026868065</v>
       </c>
     </row>
     <row r="4">
@@ -161,19 +161,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>45.34353936719</v>
+        <v>45.32858746372377</v>
       </c>
       <c r="C4" t="n">
-        <v>69.84864719943432</v>
+        <v>69.8160347947637</v>
       </c>
       <c r="D4" t="n">
-        <v>92.73804905603066</v>
+        <v>92.86125005046088</v>
       </c>
       <c r="E4" t="n">
-        <v>96.26361540579646</v>
+        <v>96.43922466714812</v>
       </c>
       <c r="F4" t="n">
-        <v>59.422411336401005</v>
+        <v>59.435553309732946</v>
       </c>
     </row>
     <row r="5">
@@ -181,19 +181,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>72.51072650067844</v>
+        <v>72.50075318628069</v>
       </c>
       <c r="C5" t="n">
-        <v>168.9195277358164</v>
+        <v>169.0129654638698</v>
       </c>
       <c r="D5" t="n">
-        <v>89.78150036243683</v>
+        <v>90.08864469832557</v>
       </c>
       <c r="E5" t="n">
-        <v>69.54881652036516</v>
+        <v>69.46573993928813</v>
       </c>
       <c r="F5" t="n">
-        <v>94.7733265253689</v>
+        <v>94.80679186634033</v>
       </c>
     </row>
     <row r="6">
@@ -201,19 +201,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>78.06525519168737</v>
+        <v>77.90577775772522</v>
       </c>
       <c r="C6" t="n">
-        <v>194.89793207778084</v>
+        <v>194.8693875927968</v>
       </c>
       <c r="D6" t="n">
-        <v>116.42003870850048</v>
+        <v>116.41273423399763</v>
       </c>
       <c r="E6" t="n">
-        <v>127.41453273097767</v>
+        <v>127.33973125258898</v>
       </c>
       <c r="F6" t="n">
-        <v>136.86372454634048</v>
+        <v>136.7951342261825</v>
       </c>
     </row>
     <row r="7">
@@ -221,19 +221,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>77.45738409250004</v>
+        <v>77.57537733258242</v>
       </c>
       <c r="C7" t="n">
-        <v>60.311365658922554</v>
+        <v>60.20186142523598</v>
       </c>
       <c r="D7" t="n">
-        <v>23.64630097268782</v>
+        <v>23.738288041865253</v>
       </c>
       <c r="E7" t="n">
-        <v>22.92607311449163</v>
+        <v>22.874450311320103</v>
       </c>
       <c r="F7" t="n">
-        <v>32.42617136837995</v>
+        <v>32.40215934845482</v>
       </c>
     </row>
   </sheetData>
@@ -272,19 +272,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>30.737476806150546</v>
+        <v>30.75210832312213</v>
       </c>
       <c r="C2" t="n">
-        <v>66.57918191495453</v>
+        <v>66.58739800663429</v>
       </c>
       <c r="D2" t="n">
-        <v>55.66289997113265</v>
+        <v>55.636176810255115</v>
       </c>
       <c r="E2" t="n">
-        <v>66.61454216807883</v>
+        <v>66.63305974603848</v>
       </c>
       <c r="F2" t="n">
-        <v>52.618337339941505</v>
+        <v>52.62620770788688</v>
       </c>
     </row>
     <row r="3">
@@ -292,19 +292,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>18.64804537509557</v>
+        <v>18.659886987902453</v>
       </c>
       <c r="C3" t="n">
-        <v>33.12073322457231</v>
+        <v>33.125427435088866</v>
       </c>
       <c r="D3" t="n">
-        <v>22.240030842358546</v>
+        <v>22.230638862897546</v>
       </c>
       <c r="E3" t="n">
-        <v>26.224483508879445</v>
+        <v>26.203945394301016</v>
       </c>
       <c r="F3" t="n">
-        <v>24.353005151546565</v>
+        <v>24.361738648743184</v>
       </c>
     </row>
     <row r="4">
@@ -312,19 +312,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>45.33926799567412</v>
+        <v>45.3106806291928</v>
       </c>
       <c r="C4" t="n">
-        <v>69.83543907046997</v>
+        <v>69.82633603659826</v>
       </c>
       <c r="D4" t="n">
-        <v>92.72881636138376</v>
+        <v>92.78197476248539</v>
       </c>
       <c r="E4" t="n">
-        <v>96.29095069291826</v>
+        <v>96.2467867143578</v>
       </c>
       <c r="F4" t="n">
-        <v>59.41728902340914</v>
+        <v>59.45768297595906</v>
       </c>
     </row>
     <row r="5">
@@ -332,19 +332,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>72.43152208065106</v>
+        <v>72.39097054736271</v>
       </c>
       <c r="C5" t="n">
-        <v>168.8872523791088</v>
+        <v>169.03731062360154</v>
       </c>
       <c r="D5" t="n">
-        <v>89.68600595230777</v>
+        <v>89.75136632297668</v>
       </c>
       <c r="E5" t="n">
-        <v>69.38653299819173</v>
+        <v>69.40658840830199</v>
       </c>
       <c r="F5" t="n">
-        <v>94.74028636199994</v>
+        <v>94.8153985347723</v>
       </c>
     </row>
     <row r="6">
@@ -352,19 +352,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>78.03897773575459</v>
+        <v>77.82651768512603</v>
       </c>
       <c r="C6" t="n">
-        <v>194.725704296069</v>
+        <v>194.9935777059499</v>
       </c>
       <c r="D6" t="n">
-        <v>116.27952083561034</v>
+        <v>116.31861600927573</v>
       </c>
       <c r="E6" t="n">
-        <v>127.34394958004218</v>
+        <v>127.42221404254218</v>
       </c>
       <c r="F6" t="n">
-        <v>136.85874025651805</v>
+        <v>136.7663242802996</v>
       </c>
     </row>
     <row r="7">
@@ -372,19 +372,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>77.30391233682468</v>
+        <v>77.15433112469218</v>
       </c>
       <c r="C7" t="n">
-        <v>60.262301443901066</v>
+        <v>60.07888263356169</v>
       </c>
       <c r="D7" t="n">
-        <v>23.580022869555023</v>
+        <v>23.6991211348507</v>
       </c>
       <c r="E7" t="n">
-        <v>22.89498846061624</v>
+        <v>22.871132117171506</v>
       </c>
       <c r="F7" t="n">
-        <v>32.420907667580366</v>
+        <v>32.380293068836664</v>
       </c>
     </row>
   </sheetData>
@@ -423,19 +423,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>30.4062741331319</v>
+        <v>30.384259272787695</v>
       </c>
       <c r="C2" t="n">
-        <v>65.92062419414796</v>
+        <v>65.8790515518017</v>
       </c>
       <c r="D2" t="n">
-        <v>54.876015722186565</v>
+        <v>54.92783312955895</v>
       </c>
       <c r="E2" t="n">
-        <v>66.02726233533521</v>
+        <v>66.03249692843701</v>
       </c>
       <c r="F2" t="n">
-        <v>52.36209786515733</v>
+        <v>52.35909948255963</v>
       </c>
     </row>
     <row r="3">
@@ -443,19 +443,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>18.103998172415633</v>
+        <v>18.100637925144373</v>
       </c>
       <c r="C3" t="n">
-        <v>32.11061977170823</v>
+        <v>32.183599216615114</v>
       </c>
       <c r="D3" t="n">
-        <v>21.477947390460145</v>
+        <v>21.40072669793393</v>
       </c>
       <c r="E3" t="n">
-        <v>25.482452558985763</v>
+        <v>25.48551176473353</v>
       </c>
       <c r="F3" t="n">
-        <v>23.968262151017495</v>
+        <v>23.983469466524102</v>
       </c>
     </row>
     <row r="4">
@@ -463,19 +463,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>44.14858228387945</v>
+        <v>44.06049707762752</v>
       </c>
       <c r="C4" t="n">
-        <v>67.16206705585644</v>
+        <v>67.06174198653358</v>
       </c>
       <c r="D4" t="n">
-        <v>88.60940338435495</v>
+        <v>88.60635970628643</v>
       </c>
       <c r="E4" t="n">
-        <v>91.5159798980062</v>
+        <v>92.11535307739696</v>
       </c>
       <c r="F4" t="n">
-        <v>58.30878391216559</v>
+        <v>58.30770464185746</v>
       </c>
     </row>
     <row r="5">
@@ -483,19 +483,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>67.74494910236251</v>
+        <v>68.04403865962063</v>
       </c>
       <c r="C5" t="n">
-        <v>161.96827198222383</v>
+        <v>161.81946340105426</v>
       </c>
       <c r="D5" t="n">
-        <v>83.96337272102294</v>
+        <v>84.25902347533611</v>
       </c>
       <c r="E5" t="n">
-        <v>66.3113712053204</v>
+        <v>66.48640191185609</v>
       </c>
       <c r="F5" t="n">
-        <v>92.39412701746944</v>
+        <v>92.42409149331</v>
       </c>
     </row>
     <row r="6">
@@ -503,19 +503,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>72.73342986706413</v>
+        <v>72.54424887434709</v>
       </c>
       <c r="C6" t="n">
-        <v>187.87910773606671</v>
+        <v>187.56183427946485</v>
       </c>
       <c r="D6" t="n">
-        <v>108.26431922253612</v>
+        <v>108.1118457550692</v>
       </c>
       <c r="E6" t="n">
-        <v>122.34852116549291</v>
+        <v>122.56325617887654</v>
       </c>
       <c r="F6" t="n">
-        <v>133.6341264782746</v>
+        <v>133.67397989550238</v>
       </c>
     </row>
     <row r="7">
@@ -523,19 +523,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>66.0189623383464</v>
+        <v>65.77756837649244</v>
       </c>
       <c r="C7" t="n">
-        <v>56.04003633207335</v>
+        <v>55.951900066076924</v>
       </c>
       <c r="D7" t="n">
-        <v>21.08652913927251</v>
+        <v>21.329881505249023</v>
       </c>
       <c r="E7" t="n">
-        <v>21.374061644947645</v>
+        <v>21.23958059822165</v>
       </c>
       <c r="F7" t="n">
-        <v>30.992903268699415</v>
+        <v>30.912702774892775</v>
       </c>
     </row>
   </sheetData>
@@ -574,19 +574,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>31.11990511437158</v>
+        <v>31.14243069844193</v>
       </c>
       <c r="C2" t="n">
-        <v>67.25130156908412</v>
+        <v>67.23517836655847</v>
       </c>
       <c r="D2" t="n">
-        <v>56.38105415200879</v>
+        <v>56.426290140989664</v>
       </c>
       <c r="E2" t="n">
-        <v>67.22314997244595</v>
+        <v>67.2330322528263</v>
       </c>
       <c r="F2" t="n">
-        <v>52.90548510612692</v>
+        <v>52.92075148012251</v>
       </c>
     </row>
     <row r="3">
@@ -594,19 +594,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>19.281799344356113</v>
+        <v>19.24226520145539</v>
       </c>
       <c r="C3" t="n">
-        <v>34.158516104728726</v>
+        <v>34.06628599791435</v>
       </c>
       <c r="D3" t="n">
-        <v>22.982135076250838</v>
+        <v>23.11676255319773</v>
       </c>
       <c r="E3" t="n">
-        <v>26.99477085076806</v>
+        <v>26.88419153668099</v>
       </c>
       <c r="F3" t="n">
-        <v>24.767968872471915</v>
+        <v>24.72576764279943</v>
       </c>
     </row>
     <row r="4">
@@ -614,19 +614,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>46.595843859190886</v>
+        <v>46.56645025108929</v>
       </c>
       <c r="C4" t="n">
-        <v>72.48435095465368</v>
+        <v>72.50281946415781</v>
       </c>
       <c r="D4" t="n">
-        <v>96.92723073396272</v>
+        <v>97.21343522752083</v>
       </c>
       <c r="E4" t="n">
-        <v>100.732854738774</v>
+        <v>101.20166449628616</v>
       </c>
       <c r="F4" t="n">
-        <v>60.56670925451538</v>
+        <v>60.52639695245315</v>
       </c>
     </row>
     <row r="5">
@@ -634,19 +634,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>77.35591831994002</v>
+        <v>76.97714087064068</v>
       </c>
       <c r="C5" t="n">
-        <v>176.05064019169225</v>
+        <v>176.51572834997066</v>
       </c>
       <c r="D5" t="n">
-        <v>95.77726729824091</v>
+        <v>96.79293303995583</v>
       </c>
       <c r="E5" t="n">
-        <v>73.05089888751687</v>
+        <v>72.70813422794856</v>
       </c>
       <c r="F5" t="n">
-        <v>97.19239579220401</v>
+        <v>97.20264070077798</v>
       </c>
     </row>
     <row r="6">
@@ -654,19 +654,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>83.77157824752963</v>
+        <v>83.48127896293016</v>
       </c>
       <c r="C6" t="n">
-        <v>202.3434814057767</v>
+        <v>201.80602072560526</v>
       </c>
       <c r="D6" t="n">
-        <v>125.00563692379745</v>
+        <v>125.01281954154443</v>
       </c>
       <c r="E6" t="n">
-        <v>132.2844031317376</v>
+        <v>132.08628213507072</v>
       </c>
       <c r="F6" t="n">
-        <v>140.21420881784528</v>
+        <v>139.93550128523918</v>
       </c>
     </row>
     <row r="7">
@@ -674,19 +674,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>89.99497066211117</v>
+        <v>90.53343385304936</v>
       </c>
       <c r="C7" t="n">
-        <v>64.5802963011589</v>
+        <v>64.56080038220847</v>
       </c>
       <c r="D7" t="n">
-        <v>26.310859337681276</v>
+        <v>26.377053025916716</v>
       </c>
       <c r="E7" t="n">
-        <v>24.504038082727998</v>
+        <v>24.553044167376484</v>
       </c>
       <c r="F7" t="n">
-        <v>33.8611170603933</v>
+        <v>33.96249434017385</v>
       </c>
     </row>
   </sheetData>
